--- a/SE2021-G003-实现/测试用例.xlsx
+++ b/SE2021-G003-实现/测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChenZihui\Desktop\2021秋\软件工程\测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD15267C-B601-4EB5-A20D-14EB5916EB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D82709F-777E-4558-959C-3C636B33AA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
   <si>
     <t>测试用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,10 +151,6 @@
   </si>
   <si>
     <t>单选题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入一个已注册且进行科目添加的账号进行做题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -170,10 +166,6 @@
     <t>UT-单选题测试-02</t>
   </si>
   <si>
-    <t>输入一个已注册但是没有进行科目添加的账号进行做题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.进入登录页面 
 2.输入31901187 密码123456 
 3.点击登录
@@ -219,6 +211,196 @@
   <si>
     <t>登录失败，显示用户名不存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-科目添加测试-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入一个已注册且选择了科目的账号进行做题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入一个已注册但是没有选择科目的账号进行做题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入一个已注册的用户进行科目的添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-科目添加测试-02</t>
+  </si>
+  <si>
+    <t>UT-科目添加测试-03</t>
+  </si>
+  <si>
+    <t>1.进入登录页面 
+2.输入31901187 密码123456 
+3.点击登录
+4.进入科目添加页面
+5.选择编号为1学科
+6.点击ADD操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入登录页面 
+2.输入test01 密码123456 
+3.点击登录
+4.进入科目添加页面
+5.选择编号为1学科
+6.点击ADD操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入登录页面 
+2.输入test02 密码123456 
+3.点击登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功，点击ADD之后显示添加不成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功，点击ADD之后显示添加成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-用户修改个人信息测试-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入一个已注册的用户进行个人信息的修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入登录页面 
+2.输入31901187 密码123456 
+3.点击登录
+4.进入个人信息页面
+5.点击修改个人信息按钮
+6.在专业栏中填入”计算机"
+7.点击确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-用户修改个人信息测试-02</t>
+  </si>
+  <si>
+    <t>UT-用户修改个人信息测试-03</t>
+  </si>
+  <si>
+    <t>1.进入登录页面 
+2.输入31901187 密码123456 
+3.点击登录
+4.进入个人信息页面
+5.点击修改个人信息按钮
+6.将昵称删除
+8.点击确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功，修改成功，个人信息一栏信息变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功，修改失败，弹出失败信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入一个已注册的用户进行密码的修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入登录页面 
+2.输入31901187 密码123456 
+3.点击登录
+4.进入密码修改页面
+5.依次输入 ‘123456’ ‘123456’ ‘123456789’
+7.点击确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入登录页面 
+2.输入31901187 密码123456 
+3.点击登录
+4.进入密码修改页面
+5.依次输入 ‘123456’ ‘1234’ ‘123456789’
+7.点击确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功，修改成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-用户查看消息测试-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入一个已注册的用户查看消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入登录页面 
+2.输入31901187 密码123456 
+3.点击登录
+4.进入查看消息页面
+7.点击确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功，显示消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-用户查看消息测试-02</t>
+  </si>
+  <si>
+    <t>UT-用户查看消息测试-03</t>
+  </si>
+  <si>
+    <t>1.进入登录页面 
+2.输入test01 密码123456 
+3.点击登录
+4.进入查看消息页面
+8.点击确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功，显示无消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-用户修改密码测试-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-用户修改密码测试-02</t>
+  </si>
+  <si>
+    <t>UT-用户修改密码测试-03</t>
   </si>
 </sst>
 </file>
@@ -274,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -294,6 +476,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -574,15 +760,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.58203125" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
     <col min="3" max="3" width="42.58203125" customWidth="1"/>
     <col min="4" max="4" width="54.08203125" customWidth="1"/>
     <col min="5" max="5" width="30.6640625" customWidth="1"/>
@@ -727,7 +913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.3">
@@ -738,64 +924,276 @@
         <v>33</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="84" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="60.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="6" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>47</v>
+      <c r="B15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="98" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="98" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="84" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="84" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/SE2021-G003-实现/测试用例.xlsx
+++ b/SE2021-G003-实现/测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChenZihui\Desktop\2021秋\软件工程\测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D82709F-777E-4558-959C-3C636B33AA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF2AC99-5ACD-4545-99E1-892243E74488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="96">
   <si>
     <t>测试用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,10 +389,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UT-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UT-用户修改密码测试-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,6 +397,62 @@
   </si>
   <si>
     <t>UT-用户修改密码测试-03</t>
+  </si>
+  <si>
+    <t>UT-用户试卷下载测试-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入一个已注册且已选择科目的账号，进行下载试卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入登录页面 
+2.输入31901187 密码123456 
+3.点击登录
+4.进入试卷页面
+5.选择编号为1的试卷
+6.点击下载，下载地址为桌面，名称为该试卷的名称
+7.打开刚刚下载的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功，下载成功，打开没有乱码显示正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-用户试卷下载测试-02</t>
+  </si>
+  <si>
+    <t>UT-用户试卷下载测试-03</t>
+  </si>
+  <si>
+    <t>输入一个已注册且未选择科目的账号，进行下载试卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.进入登录页面 
+2.输入test01 密码123456 
+3.点击登录
+4.进入试卷页面
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功，进入页面后发现没有试卷列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-管理员管理学生测试-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生管理（添加学生）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -760,17 +812,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
-    <col min="3" max="3" width="42.58203125" customWidth="1"/>
-    <col min="4" max="4" width="54.08203125" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="34.9140625" customWidth="1"/>
     <col min="5" max="5" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1091,7 +1144,7 @@
     </row>
     <row r="23" spans="1:5" ht="84" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>67</v>
@@ -1108,7 +1161,7 @@
     </row>
     <row r="24" spans="1:5" ht="84" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>67</v>
@@ -1125,7 +1178,7 @@
     </row>
     <row r="25" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>67</v>
@@ -1191,9 +1244,63 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="98" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/SE2021-G003-实现/测试用例.xlsx
+++ b/SE2021-G003-实现/测试用例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChenZihui\Desktop\2021秋\软件工程\测试\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubSpace\aishuati.document\SE2021-G003-实现\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF2AC99-5ACD-4545-99E1-892243E74488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E51C7B-4AB5-4071-A494-DF339B9F4057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="142">
   <si>
     <t>测试用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,6 +452,207 @@
   </si>
   <si>
     <t>学生管理（添加学生）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-管理员管理题目测试-02</t>
+  </si>
+  <si>
+    <t>UT-管理员管理题目测试-03</t>
+  </si>
+  <si>
+    <t>UT-管理员管理试卷测试-02</t>
+  </si>
+  <si>
+    <t>输入管理员账户和正确的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入登录页面   2.账户admin，密码admin 3.点击登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确登录，跳转页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入存在管理员账户和不正确的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入登录页面   2.账户admin，密码111111 3.点击登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示密码不正确，不跳转页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入不存在账户和任意密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入登录页面   2.账户111111，密码111111 3.点击登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入学生相关信息（已存在）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入学生页面 
+2.点击新增按钮
+3.输入学生相关信息（提示信息栏不能为空）：账户，姓名，邮箱，电话，学院
+4.点击确定提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增失败，提示该学生已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-管理员管理学生测试-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入学生相关信息（不存在）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增成功，分页显示页面新增记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-管理员管理学生测试-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生管理（修改学生）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入学生相关信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入学生页面 
+2.点击编辑按钮
+3.输入学生相关信息（提示信息栏不能为空）：账户，姓名，邮箱，电话，学院
+4.点击确定提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑成功，页面显示信息变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-管理员管理教师测试-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师管理（添加教师）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入教师相关信息（已存在）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入教师页面 
+2.点击新增按钮
+3.输入教师相关信息（提示信息栏不能为空）：登陆账号，姓名，邮箱，电话
+4.点击确定提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增失败，提示该教师已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-管理员管理教师测试-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入教师相关信息（不存在）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-管理员管理教师测试-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师管理（修改教师）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入教师相关信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入教师页面 
+2.点击编辑按钮
+3.输入教师相关信息（提示信息栏不能为空）：登陆账号，姓名，邮箱，电话
+4.点击确定提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-管理员管理题目测试-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目管理（添加题目）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入题目相关信息（已存在）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入题目页面 
+2.点击新增按钮
+3.输入题目相关信息（提示信息栏不能为空）：学科名，题目类型，难度，题面，选项A,B,C,D，正确答案
+4.点击确定提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增失败，提示该题目已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入题目相关信息（不存在）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目管理（修改题目）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入题目相关信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-管理员管理试卷测试-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试卷管理（添加试卷）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入试卷页面 
+2.点击新增按钮
+3.输入试卷相关信息（表单信息）：学科，试卷名，等级，试卷来源
+4.点击上传文件，弹出文件选择页面
+5.选择响应文件
+6.点击确定提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增失败，提示该试卷已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入题目相关信息（不存在存在）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -812,22 +1013,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="34.9140625" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" customWidth="1"/>
     <col min="5" max="5" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -847,7 +1048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -864,7 +1065,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -881,7 +1082,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -898,7 +1099,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -915,7 +1116,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -932,7 +1133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -949,7 +1150,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -966,10 +1167,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="85.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -986,7 +1187,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
@@ -1003,7 +1204,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="96.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
@@ -1020,7 +1221,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="60.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="60.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>42</v>
       </c>
@@ -1037,10 +1238,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>46</v>
       </c>
@@ -1057,7 +1258,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
@@ -1074,7 +1275,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>51</v>
       </c>
@@ -1091,7 +1292,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="98" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
@@ -1108,7 +1309,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="98" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>62</v>
       </c>
@@ -1125,7 +1326,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>63</v>
       </c>
@@ -1142,7 +1343,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="84" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>81</v>
       </c>
@@ -1159,7 +1360,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="84" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>82</v>
       </c>
@@ -1176,7 +1377,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>83</v>
       </c>
@@ -1193,7 +1394,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>72</v>
       </c>
@@ -1210,7 +1411,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>77</v>
       </c>
@@ -1227,7 +1428,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>78</v>
       </c>
@@ -1244,7 +1445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="98" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>84</v>
       </c>
@@ -1261,7 +1462,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>89</v>
       </c>
@@ -1278,7 +1479,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>90</v>
       </c>
@@ -1295,12 +1496,242 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>95</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/SE2021-G003-实现/测试用例.xlsx
+++ b/SE2021-G003-实现/测试用例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubSpace\aishuati.document\SE2021-G003-实现\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\soft_need_in_class\documentFsoftware\aishuati.document\SE2021-G003-实现\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E51C7B-4AB5-4071-A494-DF339B9F4057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A8E8DD-27A0-443B-830B-EE9FF9952A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="143">
   <si>
     <t>测试用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -653,6 +653,10 @@
   </si>
   <si>
     <t>输入题目相关信息（不存在存在）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入一个已注册但是选择科目的账号进行做题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1015,20 +1019,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="28.75" customWidth="1"/>
+    <col min="2" max="2" width="9.08203125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" customWidth="1"/>
+    <col min="4" max="4" width="34.9140625" customWidth="1"/>
     <col min="5" max="5" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1048,7 +1052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1065,7 +1069,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1082,7 +1086,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1099,7 +1103,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1116,7 +1120,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1133,7 +1137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1150,7 +1154,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1167,10 +1171,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="85.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -1187,7 +1191,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="84" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
@@ -1195,7 +1199,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>36</v>
@@ -1204,7 +1208,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="96.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
@@ -1221,7 +1225,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="60.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="60.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>42</v>
       </c>
@@ -1238,10 +1242,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="84" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>46</v>
       </c>
@@ -1258,7 +1262,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="84" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
@@ -1275,7 +1279,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>51</v>
       </c>
@@ -1292,7 +1296,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="98" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
@@ -1309,7 +1313,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="98" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>62</v>
       </c>
@@ -1326,7 +1330,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>63</v>
       </c>
@@ -1343,7 +1347,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="84" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>81</v>
       </c>
@@ -1360,7 +1364,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="84" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>82</v>
       </c>
@@ -1377,7 +1381,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>83</v>
       </c>
@@ -1394,7 +1398,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="70" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>72</v>
       </c>
@@ -1411,7 +1415,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="70" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>77</v>
       </c>
@@ -1428,7 +1432,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>78</v>
       </c>
@@ -1445,7 +1449,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="112" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>84</v>
       </c>
@@ -1462,7 +1466,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="70" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>89</v>
       </c>
@@ -1479,7 +1483,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>90</v>
       </c>
@@ -1496,7 +1500,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -1513,7 +1517,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1530,7 +1534,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -1547,7 +1551,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="70" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>94</v>
       </c>
@@ -1564,7 +1568,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="70" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>110</v>
       </c>
@@ -1581,7 +1585,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="70" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>113</v>
       </c>
@@ -1598,7 +1602,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="70" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>118</v>
       </c>
@@ -1615,7 +1619,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="70" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>123</v>
       </c>
@@ -1632,7 +1636,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="70" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>125</v>
       </c>
@@ -1649,7 +1653,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="84" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>129</v>
       </c>
@@ -1666,7 +1670,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="84" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>96</v>
       </c>
@@ -1683,7 +1687,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="84" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>97</v>
       </c>
@@ -1700,7 +1704,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="98" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>137</v>
       </c>
@@ -1717,7 +1721,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="98" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>98</v>
       </c>

--- a/SE2021-G003-实现/测试用例.xlsx
+++ b/SE2021-G003-实现/测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\soft_need_in_class\documentFsoftware\aishuati.document\SE2021-G003-实现\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A8E8DD-27A0-443B-830B-EE9FF9952A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB2AA0C-B499-43E3-8DB1-ABFA58F1BD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="148">
   <si>
     <t>测试用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,10 +52,6 @@
   </si>
   <si>
     <t>预期结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -657,6 +653,30 @@
   </si>
   <si>
     <t>输入一个已注册但是选择科目的账号进行做题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预置条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例设计者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1017,22 +1037,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.75" customWidth="1"/>
-    <col min="2" max="2" width="9.08203125" customWidth="1"/>
-    <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="34.9140625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="2" max="3" width="9.08203125" customWidth="1"/>
+    <col min="4" max="4" width="11.58203125" customWidth="1"/>
+    <col min="5" max="5" width="9.08203125" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="7" max="7" width="34.9140625" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1040,702 +1062,807 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="H10" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="84" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="84" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="H12" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="60.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" ht="84" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="60.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="G15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="84" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="G17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="84" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="5" t="s">
+    </row>
+    <row r="19" spans="1:8" ht="98" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="84" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="B19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="98" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="98" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="H21" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="84" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="84" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="98" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="5" t="s">
+    <row r="25" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="84" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="84" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="B27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="112" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="70" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="70" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="112" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="G31" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="H31" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="5" t="s">
+    </row>
+    <row r="32" spans="1:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="70" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="B32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="B33" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
-      <c r="C35" t="s">
+      <c r="F35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="H35" t="s">
         <v>100</v>
       </c>
-      <c r="E35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
-      <c r="C36" t="s">
+      <c r="F36" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" t="s">
         <v>102</v>
       </c>
-      <c r="D36" t="s">
+      <c r="H36" t="s">
         <v>103</v>
       </c>
-      <c r="E36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:8" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="F37" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" t="s">
         <v>105</v>
       </c>
-      <c r="D37" t="s">
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="70" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="G38" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="84" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="84" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="70" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="B45" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H45" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="70" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" s="7" t="s">
+    </row>
+    <row r="46" spans="1:8" ht="84" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H46" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="70" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="70" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="70" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="84" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" s="5" t="s">
+    </row>
+    <row r="47" spans="1:8" ht="98" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="84" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="84" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="G47" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="98" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="98" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="98" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>112</v>
+      <c r="H48" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/SE2021-G003-实现/测试用例.xlsx
+++ b/SE2021-G003-实现/测试用例.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubSpace\aishuati.document\SE2021-G003-实现\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E51C7B-4AB5-4071-A494-DF339B9F4057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B76E505-2081-41F9-8985-3DF4A60A9A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="196">
   <si>
     <t>测试用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,12 +455,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UT-管理员管理题目测试-02</t>
-  </si>
-  <si>
-    <t>UT-管理员管理题目测试-03</t>
-  </si>
-  <si>
     <t>UT-管理员管理试卷测试-02</t>
   </si>
   <si>
@@ -593,10 +587,6 @@
 2.点击编辑按钮
 3.输入教师相关信息（提示信息栏不能为空）：登陆账号，姓名，邮箱，电话
 4.点击确定提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UT-管理员管理题目测试-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -653,6 +643,254 @@
   </si>
   <si>
     <t>输入题目相关信息（不存在存在）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-管理员管理学生测试-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入学生姓名和年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入学生页面 
+2.在搜索栏输入姓名和年级
+3.点击搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入学生姓名和年级（有此条记录）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索成功，页面显示搜索信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入学生姓名和年级（无此条记录）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索失败，页面显示无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-管理员管理学生测试-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-管理员管理学生测试-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入学生页面 
+2.点击编辑按钮
+3.输入学生相关信息（表单信息）：昵称，手机号码，邮箱，学院
+4.点击确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑成功，记录信息变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-管理员管理学生测试-07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入学生页面 
+2.点击编辑按钮
+3.输入学生相关信息（表单信息）：昵称，手机号码，邮箱，学院
+4.点击取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回显示界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-管理员管理教师测试-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-管理员管理教师测试-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-管理员管理教师测试-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-管理员管理教师测试-07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入教师姓名（有此条记录）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入教师姓名（无此条记录）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入教师页面 
+2.点击编辑按钮
+3.输入教师相关信息（表单信息）：姓名，邮箱，电话
+4.点击确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入教师页面 
+2.点击编辑按钮
+3.输入教师相关信息（表单信息）：姓名，邮箱，电话
+5.点击取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入教师页面 
+2.在搜索栏输入姓名
+3.点击搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入题目学科（有此条记录）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入题目学科（无此条记录）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入题目页面 
+2.点击新增按钮
+3.输入题目相关信息（提示信息栏不能为空）：学科名，题目类型，难度，题面，选项A,B,C,D，正确答案
+4.点击取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入题目页面 
+2.在搜索栏输入学科
+3.点击搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入题目页面 
+2.在搜索栏输入学科
+4.点击搜索</t>
+  </si>
+  <si>
+    <t>UT-管理员管理试卷测试-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-管理员管理试卷测试-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试卷搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入试卷学科（有此条记录）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入试卷学科（无此条记录）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-管理员单选题目测试-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-管理员单选题目测试-02</t>
+  </si>
+  <si>
+    <t>UT-管理员单选题目测试-03</t>
+  </si>
+  <si>
+    <t>UT-管理员单选题目测试-04</t>
+  </si>
+  <si>
+    <t>UT-管理员单选题目测试-05</t>
+  </si>
+  <si>
+    <t>UT-管理员单选题目测试-06</t>
+  </si>
+  <si>
+    <t>UT-管理员单选题目测试-07</t>
+  </si>
+  <si>
+    <t>UT-管理员主观题目测试-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-管理员主观题目测试-02</t>
+  </si>
+  <si>
+    <t>UT-管理员主观题目测试-03</t>
+  </si>
+  <si>
+    <t>UT-管理员主观题目测试-04</t>
+  </si>
+  <si>
+    <t>UT-管理员主观题目测试-05</t>
+  </si>
+  <si>
+    <t>UT-管理员主观题目测试-06</t>
+  </si>
+  <si>
+    <t>UT-管理员主观题目测试-07</t>
+  </si>
+  <si>
+    <t>1.进入题目页面 
+2.点击新增按钮
+3.输入题目相关信息（提示信息栏不能为空）：学科名，题目类型，难度，题面，参考答案
+4.点击确定提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入题目页面 
+2.点击新增按钮
+3.输入题目相关信息（提示信息栏不能为空）：学科名，题目类型，难度，题面，参考答案
+5.点击确定提交</t>
+  </si>
+  <si>
+    <t>1.进入题目页面 
+2.点击新增按钮
+3.输入题目相关信息（提示信息栏不能为空）：学科名，题目类型，难度，题面，参考答案
+6.点击确定提交</t>
+  </si>
+  <si>
+    <t>1.进入题目页面 
+2.点击新增按钮
+3.输入题目相关信息（提示信息栏不能为空）：学科名，题目类型，难度，题面，参考答案
+4.点击取消</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1013,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1504,13 +1742,13 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" t="s">
         <v>99</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1521,13 +1759,13 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" t="s">
         <v>102</v>
-      </c>
-      <c r="D36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E36" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1538,10 +1776,10 @@
         <v>3</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E37" t="s">
         <v>29</v>
@@ -1555,183 +1793,540 @@
         <v>95</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="D40" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="E40" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="D47" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="E47" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="C52" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="D52" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="4" t="s">
+    </row>
+    <row r="53" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D53" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="D54" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" s="5" t="s">
+      <c r="B67" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C67" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>112</v>
+      <c r="E67" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
